--- a/DowloadPhieuMuon.xlsx
+++ b/DowloadPhieuMuon.xlsx
@@ -52,7 +52,7 @@
     <t>PHIẾU MƯỢN THIẾT BỊ</t>
   </si>
   <si>
-    <t>Ngày: 23/04/2023</t>
+    <t>Ngày: 05/05/2023</t>
   </si>
   <si>
     <t>Ngày mượn: 2023-04-21</t>
